--- a/data/Emotional-Vocab-Pos-anal.xlsx
+++ b/data/Emotional-Vocab-Pos-anal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>갈구하/VV</t>
+          <t>갈망/NNG</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>갈망/NNG</t>
+          <t>감개/NNG 무량/NNG</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>갈망하/VV</t>
+          <t>감격/NNG</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>감개/NNG 무량/NNG</t>
+          <t>감동/NNG</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>감개무량하/VA</t>
+          <t>감명/NNG</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>감격/NNG</t>
+          <t>감미/NNG 롭/XSA</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>감격하/VV</t>
+          <t>감복/NNG</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>감동/NNG</t>
+          <t>감사/NNG</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>감동하/VV</t>
+          <t>감질나/VA</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>감명/NNG</t>
+          <t>감탄/NNG</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>감미/NNG 롭/XSA</t>
+          <t>감회/NNG</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>감미롭/VA</t>
+          <t>감흥/NNG</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>감복/NNG</t>
+          <t>격려/NNG</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>감복하/VV</t>
+          <t>경이/NNG 롭/XSA</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>감사/NNG</t>
+          <t>경쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>감사하/VV</t>
+          <t>경탄/NNG</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>감질나/VA</t>
+          <t>고맙/VA</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>감탄/NNG</t>
+          <t>고취/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>감탄하/VV</t>
+          <t>공감/NNG</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>감회/NNG</t>
+          <t>교감/NNG</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>감흥/NNG</t>
+          <t>구원/NNG</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>격려/NNG</t>
+          <t>궁금하/VA</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경이/NNG 롭/XSA</t>
+          <t>근사/NNG</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경이롭/VA</t>
+          <t>긍정/NNG</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경쾌하/VA</t>
+          <t>긍지/NNG</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경탄/NNG</t>
+          <t>기대/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>고맙/VA</t>
+          <t>기묘하/VA</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>고취/NNG 되/XSV</t>
+          <t>기분/NNG 좋/VA</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>고취되/VV</t>
+          <t>기쁘/VA</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>공감/NNG</t>
+          <t>기쁨/NNG</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>교감/NNG</t>
+          <t>기적/NNG</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>구원/NNG</t>
+          <t>깨달음/NNG</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>궁금하/VA</t>
+          <t>낙관/NNG</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>근사/NNG</t>
+          <t>낙원/NNG</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>근사하/VA</t>
+          <t>낙천/NNG</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>긍정/NNG</t>
+          <t>낭만/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>긍지/NNG</t>
+          <t>달갑/VA</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>기대/NNG 감/XSN</t>
+          <t>대견/NNG</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>기대감/NNG</t>
+          <t>도움/NNG</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>기묘하/VA</t>
+          <t>동경/NNP</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>기분/NNG 좋/VA</t>
+          <t>두근거리/VV</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>기쁘/VA</t>
+          <t>따뜻하/VA</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>기쁨/NNG</t>
+          <t>따스하/VA</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>기적/NNG</t>
+          <t>마법/NNG</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>깨달음/NNG</t>
+          <t>만족/NNG</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>낙관/NNG</t>
+          <t>매력/NNG</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>낙원/NNG</t>
+          <t>매혹/NNG</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>낙천/NNG</t>
+          <t>모성/NNG 애/XSN</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>낭만/NNG 적/XSN</t>
+          <t>믿음/NNG</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>낭만적/NNG</t>
+          <t>박/NNP 진감/NNG</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>달갑/VA</t>
+          <t>반갑/VA</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>대견/NNG</t>
+          <t>반색/NNG</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>대견하/VA</t>
+          <t>반신/NNG 반의/NNG</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>도움/NNG</t>
+          <t>방그레/NNG</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>동경/NNP</t>
+          <t>방글방글/MAG</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>두근거리/VV</t>
+          <t>방긋/MAG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>따뜻하/VA</t>
+          <t>보/VV 기/ETN 좋/VA</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>따스하/VA</t>
+          <t>보람/NNG</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>마법/NNG</t>
+          <t>부러워하/VV</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>만족/NNG</t>
+          <t>빙그레/NNP</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>만족하/VA</t>
+          <t>뿌듯하/VA</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>매력/NNG</t>
+          <t>사랑/NNG</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>매혹/NNG</t>
+          <t>사랑/NNG 스럽/XSA</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>모성/NNG 애/XSN</t>
+          <t>상기/NNG 되/XSV</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>모성애/NNG</t>
+          <t>상쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>믿음/NNG</t>
+          <t>상큼하/VA</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>박/NNP 진감/NNG</t>
+          <t>생/NNG 기/XSN</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>박진감/NNP</t>
+          <t>생동/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>반갑/VA</t>
+          <t>생명/NNG 력/XSN</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>반색/NNG</t>
+          <t>설레/VV</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>반신/NNG 반의/NNG</t>
+          <t>성공/NNG</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>반신반의하/VV</t>
+          <t>성취/NNG</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>방그레/NNG</t>
+          <t>성취/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>방글방글/MAG</t>
+          <t>섹시/NNG</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>방긋/MAG</t>
+          <t>순이익/NNG</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>보/VV 기/ETN 좋/VA</t>
+          <t>승리/NNG</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>보람/NNG</t>
+          <t>승진/NNG</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>부러워하/VV</t>
+          <t>시원/NNG</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>빙그레/NNP</t>
+          <t>신/XPN 바람/NNG</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>뿌듯하/VA</t>
+          <t>신나/VV</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>사랑/NNG</t>
+          <t>신뢰/NNG</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>사랑/NNG 스럽/XSA</t>
+          <t>신명/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>사랑스럽/VA</t>
+          <t>신비/NNG 롭/XSA</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>상기/NNG 되/XSV</t>
+          <t>신선하/VA</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>상기되/VV</t>
+          <t>신세계/NNP</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>상쾌하/VA</t>
+          <t>싱글벙글/MAG</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>상큼하/VA</t>
+          <t>쌩끗/MAG</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>생/NNG 기/XSN</t>
+          <t>씰룩거리/VV</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>생기/NNG</t>
+          <t>아리송하/VA</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>생동/NNG 감/XSN</t>
+          <t>안도/NNG</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>생동감/NNG</t>
+          <t>안락/NNG</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>생명/NNG 력/XSN</t>
+          <t>안심/NNG</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>생명력/NNG</t>
+          <t>안정/NNG</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>설레/VV</t>
+          <t>알쏭달쏭/MAG</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>성공/NNG</t>
+          <t>애인/NNG</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>성취/NNG</t>
+          <t>애정/NNG</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>성취/NNG 감/XSN</t>
+          <t>애착/NNG</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>성취감/NNG</t>
+          <t>어여쁘/VA</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>섹시/NNG</t>
+          <t>얼씨구/IC</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>섹시하/VA</t>
+          <t>업적/NNG</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>순이익/NNG</t>
+          <t>여유/NNG</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>승리/NNG</t>
+          <t>연정/NNG</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>승진/NNG</t>
+          <t>열성/NNG</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>시원/NNG</t>
+          <t>열정/NNG</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>시원하/VA</t>
+          <t>영광/NNP</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>신/XPN 바람/NNG</t>
+          <t>예쁘/VA</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>신나/VV</t>
+          <t>온정/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>신뢰/NNG</t>
+          <t>우승/NNG</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>신명/NNG 나/VV</t>
+          <t>우아하/VA</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>신바람/NNG</t>
+          <t>우정/NNG</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>신비/NNG 롭/XSA</t>
+          <t>웃/VV</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>신비롭/VA</t>
+          <t>웃/VV 어/EC 넘기/VV</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>신선하/VA</t>
+          <t>웃음/NNG</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>신세계/NNP</t>
+          <t>원더풀/NNG</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>싱글벙글/MAG</t>
+          <t>유대/NNG 감/XSN</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>쌩끗/MAG</t>
+          <t>유쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>씰룩거리/VV</t>
+          <t>으쓱/MAG</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>아리송하/VA</t>
+          <t>자긍/NNG 심/XSN</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>안도/NNG</t>
+          <t>자부/NNG</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>안락/NNG</t>
+          <t>자부/NNG 심/XSN</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>안심/NNG</t>
+          <t>자유/NNG</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>안정/NNG</t>
+          <t>재미있/VA</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>알쏭달쏭/MAG</t>
+          <t>전율/NNG</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>알쏭달쏭하/VA</t>
+          <t>정감/NNG</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>애인/NNG</t>
+          <t>존경/NNG</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>애정/NNG</t>
+          <t>좋/VA</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>애착/NNG</t>
+          <t>즐겁/VA</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>어여쁘/VA</t>
+          <t>진리/NNG</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>얼씨구/IC</t>
+          <t>짜릿/MAG</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>업적/NNG</t>
+          <t>찬양/NNG</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>여유/NNG</t>
+          <t>천국/NNG</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>연정/NNG</t>
+          <t>천만/NR 다행/NNG</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>열성/NNG</t>
+          <t>축복/NNG</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>열정/NNG</t>
+          <t>축하/NNG</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>영광/NNP</t>
+          <t>치유/NNG</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>예쁘/VA</t>
+          <t>친구/NNG</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>온정/NNG</t>
+          <t>친근하/VA</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>우승/NNG</t>
+          <t>친숙/NNG</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>우아하/VA</t>
+          <t>친절/NNG</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>우정/NNG</t>
+          <t>칭찬/NNG</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>웃/VV</t>
+          <t>콩닥거리/VV</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>웃/VV 어/EC 넘기/VV</t>
+          <t>쾌감/NNG</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>웃음/NNG</t>
+          <t>쾌거/NNG</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>원더풀/NNG</t>
+          <t>쾌적하/VA</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>유대/NNG 감/XSN</t>
+          <t>킬킬거리/VV</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>유대감/NNG</t>
+          <t>탐나/VV</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>유쾌하/VA</t>
+          <t>통쾌/NNG</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>으쓱/MAG</t>
+          <t>편안/NNG</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>으쓱하/VA</t>
+          <t>평온/NNG</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>자긍/NNG 심/XSN</t>
+          <t>평화/NNG</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>자긍심/NNG</t>
+          <t>폭소/NNG</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>자부/NNG</t>
+          <t>풍요/NNG</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>자부/NNG 심/XSN</t>
+          <t>학수고대/NNG</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>자부심/NNG</t>
+          <t>해결/NNG</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>자부하/VV</t>
+          <t>행복/NNG</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>자유/NNG</t>
+          <t>행운/NNG</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>재미있/VA</t>
+          <t>호감/NNG</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>전율/NNG</t>
+          <t>호강/NNG</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>전율하/VV</t>
+          <t>호평/NNG</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>정감/NNG</t>
+          <t>화합/NNG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>존경/NNG</t>
+          <t>화해/NNG</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>좋/VA</t>
+          <t>환상/NNG</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>즐겁/VA</t>
+          <t>환상/NNG 적/XSN</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>진리/NNG</t>
+          <t>환영/NNG</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>짜릿/MAG</t>
+          <t>환의/NNG</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>짜릿하/VA</t>
+          <t>활동/NNG 력/XSN</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>찬양/NNG</t>
+          <t>활력/NNG 소/NNG</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>천국/NNG</t>
+          <t>활약/NNG</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>천만/NR 다행/NNG</t>
+          <t>황홀/NNG</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>축복/NNG</t>
+          <t>후련하/VA</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>축하/NNG</t>
+          <t>훌륭하/VA</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>치유/NNG</t>
+          <t>휴식/NNG</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>친구/NNG</t>
+          <t>흐뭇하/VA</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>친근하/VA</t>
+          <t>흡족/NNG</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>친숙/NNG</t>
+          <t>흥미/NNG 롭/XSA</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>친숙하/VA</t>
+          <t>희망/NNG</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>친절/NNG</t>
+          <t>희열/NNG</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>칭찬/NNG</t>
+          <t>희희막락/NNP</t>
         </is>
       </c>
     </row>
@@ -2260,476 +2260,6 @@
         <v>182</v>
       </c>
       <c r="B183" t="inlineStr">
-        <is>
-          <t>콩닥거리/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>쾌감/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>쾌거/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>쾌적하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>킬킬거리/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>탐나/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>통쾌/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>통쾌하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>편안/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>편안하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>평온/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>평화/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>폭소/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>풍요/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>학수고대/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>학수고대하/VV</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>해결/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>행복/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>행복하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>행운/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>호감/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>호강/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>호평/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>화합/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>화해/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>환상/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>환상/NNG 적/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>환상적/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>환영/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>환의/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>활동/NNG 력/XSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>활동력/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>활력/NNG 소/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>활력소/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>활약/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>황홀/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>후련하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>훌륭하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>휴식/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>흐뭇하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>흡족/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>흡족하/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>흥미/NNG 롭/XSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>흥미롭/VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>희망/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>희열/NNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>희희막락/NNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B230" t="inlineStr">
         <is>
           <t>히죽거리/VV</t>
         </is>

--- a/data/Emotional-Vocab-Pos-anal.xlsx
+++ b/data/Emotional-Vocab-Pos-anal.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>갈구/NNG</t>
+          <t>갈구하/VV</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>갈망/NNG</t>
+          <t>갈망하[02]/VV</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>감개/NNG 무량/NNG</t>
+          <t>감개무량하/VA</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>감격/NNG</t>
+          <t>감격하/VV</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>감동/NNG</t>
+          <t>감동하[01]/VV</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>감미/NNG 롭/XSA</t>
+          <t>감미롭/VA</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>감복/NNG</t>
+          <t>감복하/VV</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>감사/NNG</t>
+          <t>감사하[05]/VV</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>감탄/NNG</t>
+          <t>감탄하/VV</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>감회/NNG</t>
+          <t>감회[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>감흥/NNG</t>
+          <t>감흥[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경이/NNG 롭/XSA</t>
+          <t>경이롭/VA</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경탄/NNG</t>
+          <t>경탄[07]/NNG</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>고맙/VA</t>
+          <t>고맙[01]/VA</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>고취/NNG 되/XSV</t>
+          <t>고취되/VV</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>교감/NNG</t>
+          <t>교감[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>구원/NNG</t>
+          <t>구원[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>궁금하/VA</t>
+          <t>궁금하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>근사/NNG</t>
+          <t>근사하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>긍지/NNG</t>
+          <t>긍지[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>기대/NNG 감/XSN</t>
+          <t>기대감/NNG</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>기분/NNG 좋/VA</t>
+          <t>기분[01]/NNG 좋[01]/VA</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>기적/NNG</t>
+          <t>기적[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>낙관/NNG</t>
+          <t>낙관[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>낙천/NNG</t>
+          <t>낙천[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>낭만/NNG 적/XSN</t>
+          <t>낭만적/NNG</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>대견/NNG</t>
+          <t>대견하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>동경/NNP</t>
+          <t>동경[04]/NNP</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>만족/NNG</t>
+          <t>만족하/VA</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>모성/NNG 애/XSN</t>
+          <t>모성애/NNG</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>박/NNP 진감/NNG</t>
+          <t>박진감/NNP</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>반색/NNG</t>
+          <t>반색[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>반신/NNG 반의/NNG</t>
+          <t>반신반의하/VV</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>방긋/MAG</t>
+          <t>방긋[01]/MAG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>보/VV 기/ETN 좋/VA</t>
+          <t>보[01]/VV 기/ETN 좋[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>사랑/NNG</t>
+          <t>사랑[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>사랑/NNG 스럽/XSA</t>
+          <t>사랑스럽/VA</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>상기/NNG 되/XSV</t>
+          <t>상기되[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>상큼하/VA</t>
+          <t>상큼하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>생/NNG 기/XSN</t>
+          <t>생기[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>생동/NNG 감/XSN</t>
+          <t>생동감/NNG</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>생명/NNG 력/XSN</t>
+          <t>생명력/NNG</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>성공/NNG</t>
+          <t>성공[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>성취/NNG</t>
+          <t>성취[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>성취/NNG 감/XSN</t>
+          <t>성취감/NNG</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>섹시/NNG</t>
+          <t>섹시하/VA</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>승진/NNG</t>
+          <t>승진[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>시원/NNG</t>
+          <t>시원하/VA</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>신/XPN 바람/NNG</t>
+          <t>신나/VV</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>신나/VV</t>
+          <t>신뢰[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>신뢰/NNG</t>
+          <t>신명[01]/NNG 나[01]/VV</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>신명/NNG 나/VV</t>
+          <t>신바람[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>신비/NNG 롭/XSA</t>
+          <t>신비롭/VA</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>신선하/VA</t>
+          <t>신선하[03]/VA</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>안도/NNG</t>
+          <t>안도[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>안심/NNG</t>
+          <t>안심[04]/NNG</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>안정/NNG</t>
+          <t>안정[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>알쏭달쏭/MAG</t>
+          <t>알쏭달쏭하/VA</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>애인/NNG</t>
+          <t>애인[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>애정/NNG</t>
+          <t>애정[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>연정/NNG</t>
+          <t>연정[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>열성/NNG</t>
+          <t>열성[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>열정/NNG</t>
+          <t>열정[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>영광/NNP</t>
+          <t>영광[03]/NNP</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>온정/NNG</t>
+          <t>온정[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>우승/NNG</t>
+          <t>우승[05]/NNG</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>우정/NNG</t>
+          <t>우정[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>유대/NNG 감/XSN</t>
+          <t>유대감/NNG</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>으쓱/MAG</t>
+          <t>으쓱하[02]/VA</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>자긍/NNG 심/XSN</t>
+          <t>자긍심/NNG</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>자부/NNG</t>
+          <t>자부심/NNG</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>자부/NNG 심/XSN</t>
+          <t>자부하/VV</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>자유/NNG</t>
+          <t>자유[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전율/NNG</t>
+          <t>전율하/VV</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>정감/NNG</t>
+          <t>정감[03]/NNG</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>좋/VA</t>
+          <t>좋[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>짜릿/MAG</t>
+          <t>짜릿하/VA</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>찬양/NNG</t>
+          <t>찬양[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>천국/NNG</t>
+          <t>천국[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>천만/NR 다행/NNG</t>
+          <t>천만[01]/NR 다행/NNG</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>치유/NNG</t>
+          <t>치유[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>친구/NNG</t>
+          <t>친구[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>친숙/NNG</t>
+          <t>친숙하/VA</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>통쾌/NNG</t>
+          <t>통쾌하/VA</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>편안/NNG</t>
+          <t>편안하[01]/VA</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>평온/NNG</t>
+          <t>평온[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>평화/NNG</t>
+          <t>평화[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>풍요/NNG</t>
+          <t>풍요[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>학수고대/NNG</t>
+          <t>학수고대하/VV</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>해결/NNG</t>
+          <t>해결[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>행복/NNG</t>
+          <t>행복하/VA</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>행운/NNG</t>
+          <t>행운[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>호강/NNG</t>
+          <t>호강[01]/NNG</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>화합/NNG</t>
+          <t>화합[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>화해/NNG</t>
+          <t>화해[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>환상/NNG</t>
+          <t>환상[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>환상/NNG 적/XSN</t>
+          <t>환상적/NNG</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>환영/NNG</t>
+          <t>환영[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>환의/NNG</t>
+          <t>환의[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>활동/NNG 력/XSN</t>
+          <t>활동력/NNG</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>활력/NNG 소/NNG</t>
+          <t>활력소/NNG</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>휴식/NNG</t>
+          <t>휴식[02]/NNG</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>흡족/NNG</t>
+          <t>흡족하/VA</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>흥미/NNG 롭/XSA</t>
+          <t>흥미롭/VA</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>히죽거리/VV</t>
+          <t>히죽거리[01]/VV</t>
         </is>
       </c>
     </row>

--- a/data/Emotional-Vocab-Pos-anal.xlsx
+++ b/data/Emotional-Vocab-Pos-anal.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>갈망하[02]/VV</t>
+          <t>갈망하/VV</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>감동하[01]/VV</t>
+          <t>감동하/VV</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>감사하[05]/VV</t>
+          <t>감사하/VV</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>감회[01]/NNG</t>
+          <t>감회/NNG</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>감흥[02]/NNG</t>
+          <t>감흥/NNG</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경탄[07]/NNG</t>
+          <t>경탄/NNG</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>고맙[01]/VA</t>
+          <t>고맙/VA</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>교감[03]/NNG</t>
+          <t>교감/NNG</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>구원[05]/NNG</t>
+          <t>구원/NNG</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>궁금하[01]/VA</t>
+          <t>궁금하/VA</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>근사하[01]/VA</t>
+          <t>근사하/VA</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>긍지[02]/NNG</t>
+          <t>긍지/NNG</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>기분[01]/NNG 좋[01]/VA</t>
+          <t>기분/NNG 좋/VA</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>기적[03]/NNG</t>
+          <t>기적/NNG</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>낙관[02]/NNG</t>
+          <t>낙관/NNG</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>낙천[01]/NNG</t>
+          <t>낙천/NNG</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>대견하[01]/VA</t>
+          <t>대견하/VA</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>동경[04]/NNP</t>
+          <t>동경/NNP</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>반색[01]/NNG</t>
+          <t>반색/NNG</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>방긋[01]/MAG</t>
+          <t>방긋/MAG</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>보[01]/VV 기/ETN 좋[01]/VA</t>
+          <t>보/VV 기/ETN 좋/VA</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>사랑[01]/NNG</t>
+          <t>사랑/NNG</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>상기되[01]/VV</t>
+          <t>상기되/VV</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>상큼하[02]/VA</t>
+          <t>상큼하/VA</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>생기[01]/NNG</t>
+          <t>생기/NNG</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>성공[01]/NNG</t>
+          <t>성공/NNG</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>성취[02]/NNG</t>
+          <t>성취/NNG</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>승진[03]/NNG</t>
+          <t>승진/NNG</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>신뢰[02]/NNG</t>
+          <t>신뢰/NNG</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>신명[01]/NNG 나[01]/VV</t>
+          <t>신명/NNG 나/VV</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>신바람[01]/NNG</t>
+          <t>신바람/NNG</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>신선하[03]/VA</t>
+          <t>신선하/VA</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>안도[02]/NNG</t>
+          <t>안도/NNG</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>안심[04]/NNG</t>
+          <t>안심/NNG</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>안정[01]/NNG</t>
+          <t>안정/NNG</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>애인[02]/NNG</t>
+          <t>애인/NNG</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>애정[02]/NNG</t>
+          <t>애정/NNG</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>연정[05]/NNG</t>
+          <t>연정/NNG</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>열성[05]/NNG</t>
+          <t>열성/NNG</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>열정[02]/NNG</t>
+          <t>열정/NNG</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>영광[03]/NNP</t>
+          <t>영광/NNP</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>온정[03]/NNG</t>
+          <t>온정/NNG</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>우승[05]/NNG</t>
+          <t>우승/NNG</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>우정[02]/NNG</t>
+          <t>우정/NNG</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>으쓱하[02]/VA</t>
+          <t>으쓱하/VA</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>자유[03]/NNG</t>
+          <t>자유/NNG</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>정감[03]/NNG</t>
+          <t>정감/NNG</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>좋[01]/VA</t>
+          <t>좋/VA</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>찬양[02]/NNG</t>
+          <t>찬양/NNG</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>천국[01]/NNG</t>
+          <t>천국/NNG</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>천만[01]/NR 다행/NNG</t>
+          <t>천만/NR 다행/NNG</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>치유[01]/NNG</t>
+          <t>치유/NNG</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>친구[02]/NNG</t>
+          <t>친구/NNG</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>편안하[01]/VA</t>
+          <t>편안하/VA</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>평온[02]/NNG</t>
+          <t>평온/NNG</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>평화[02]/NNG</t>
+          <t>평화/NNG</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>풍요[02]/NNG</t>
+          <t>풍요/NNG</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>해결[02]/NNG</t>
+          <t>해결/NNG</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>행운[02]/NNG</t>
+          <t>행운/NNG</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>호강[01]/NNG</t>
+          <t>호강/NNG</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>화합[02]/NNG</t>
+          <t>화합/NNG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>화해[02]/NNG</t>
+          <t>화해/NNG</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>환상[02]/NNG</t>
+          <t>환상/NNG</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>환영[02]/NNG</t>
+          <t>환영/NNG</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>환의[02]/NNG</t>
+          <t>환의/NNG</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>휴식[02]/NNG</t>
+          <t>휴식/NNG</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>히죽거리[01]/VV</t>
+          <t>히죽거리/VV</t>
         </is>
       </c>
     </row>
